--- a/ConceptMap-R5-SampledData-elements-for-R4-SampledData.xlsx
+++ b/ConceptMap-R5-SampledData-elements-for-R4-SampledData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:34.2112812-06:00</t>
+    <t>2026-02-09T22:05:44.2062511-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -138,9 +138,6 @@
     <t>intervalUnit</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SampledData.intervalUnit</t>
-  </si>
-  <si>
     <t>SampledData.factor</t>
   </si>
   <si>
@@ -183,16 +180,10 @@
     <t>codeMap</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SampledData.codeMap</t>
-  </si>
-  <si>
     <t>SampledData.offsets</t>
   </si>
   <si>
     <t>offsets</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SampledData.offsets</t>
   </si>
   <si>
     <t>SampledData.data</t>
@@ -544,98 +535,98 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2"/>
     </row>

--- a/ConceptMap-R5-SampledData-elements-for-R4-SampledData.xlsx
+++ b/ConceptMap-R5-SampledData-elements-for-R4-SampledData.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.2062511-06:00</t>
+    <t>2026-02-17T14:42:27.5306274-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
